--- a/egm_example_data.xlsx
+++ b/egm_example_data.xlsx
@@ -1884,7 +1884,7 @@
   <dimension ref="A1:O1368"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1339" workbookViewId="0">
-      <selection activeCell="A1363" sqref="A1363:XFD1363"/>
+      <selection activeCell="E1355" sqref="E1355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
